--- a/doc/20_基本設計/01_画面系/タスク詳細.xlsx
+++ b/doc/20_基本設計/01_画面系/タスク詳細.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaku/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505F7581-357D-AD41-A8E5-8CEDE21E2251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2FF2E-FC00-4A16-A313-616D910E2CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="1320" windowWidth="23260" windowHeight="14540" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,15 +119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>461270</xdr:colOff>
+      <xdr:colOff>457786</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>215632</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>430790</xdr:colOff>
+      <xdr:colOff>427306</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>17512</xdr:rowOff>
+      <xdr:rowOff>22814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -142,8 +142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="461270" y="215632"/>
-          <a:ext cx="6706042" cy="3976315"/>
+          <a:off x="457786" y="219075"/>
+          <a:ext cx="6684645" cy="3918539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -561,15 +561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>669235</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>222197</xdr:rowOff>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200991</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22089</xdr:rowOff>
+      <xdr:colOff>61843</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>220872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -584,8 +584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2690192" y="1613675"/>
-          <a:ext cx="879060" cy="263718"/>
+          <a:off x="2537791" y="884806"/>
+          <a:ext cx="870226" cy="263718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,15 +636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>558798</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161235</xdr:rowOff>
+      <xdr:colOff>41964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22087</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161235</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -659,8 +659,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2579755" y="1320800"/>
-          <a:ext cx="810593" cy="231913"/>
+          <a:off x="2049668" y="485913"/>
+          <a:ext cx="1077846" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -694,8 +694,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>基本情報</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>タスク詳細</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -705,15 +705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>671601</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14705</xdr:rowOff>
+      <xdr:colOff>528288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>220114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>203357</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>46510</xdr:rowOff>
+      <xdr:colOff>60044</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -728,8 +728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2692558" y="1870009"/>
-          <a:ext cx="879060" cy="263718"/>
+          <a:off x="2539968" y="1143223"/>
+          <a:ext cx="872876" cy="261446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,7 +765,95 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>526395</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59477</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18104CA-03F9-4575-8844-65C9848D5D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533615" y="1400105"/>
+          <a:ext cx="871228" cy="261128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -789,99 +877,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>670086</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47834</xdr:rowOff>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>203168</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18104CA-03F9-4575-8844-65C9848D5D19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2691043" y="2135051"/>
-          <a:ext cx="880386" cy="262582"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>取得日</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>669139</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>74149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200895</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107090</xdr:rowOff>
+      <xdr:colOff>61346</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -896,8 +900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2690096" y="2393279"/>
-          <a:ext cx="879060" cy="264854"/>
+          <a:off x="2536810" y="1661445"/>
+          <a:ext cx="869902" cy="263401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,24 +935,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>資格概要</a:t>
+            <a:t>取得日</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -957,15 +952,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>669670</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100986</xdr:rowOff>
+      <xdr:colOff>528421</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>201426</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>132472</xdr:rowOff>
+      <xdr:colOff>60177</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>113887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -980,8 +975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2690627" y="2652029"/>
-          <a:ext cx="879060" cy="263400"/>
+          <a:off x="2535641" y="1926070"/>
+          <a:ext cx="869902" cy="261944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,17 +1010,33 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>資格詳細</a:t>
+            <a:t>資格写し</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -1041,15 +1052,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>205584</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>223522</xdr:rowOff>
+      <xdr:colOff>58176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>188687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>635727</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23414</xdr:rowOff>
+      <xdr:colOff>488319</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1064,8 +1075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3573845" y="1615000"/>
-          <a:ext cx="2451099" cy="263718"/>
+          <a:off x="3403542" y="880063"/>
+          <a:ext cx="2437362" cy="261126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,15 +1124,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>204174</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17755</xdr:rowOff>
+      <xdr:colOff>60909</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>221450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>634317</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>49561</xdr:rowOff>
+      <xdr:colOff>491052</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1136,8 +1147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3572435" y="1873059"/>
-          <a:ext cx="2451099" cy="263719"/>
+          <a:off x="3406275" y="1143284"/>
+          <a:ext cx="2437362" cy="262264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1185,15 +1196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>160000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98993</xdr:rowOff>
+      <xdr:colOff>59639</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590143</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130798</xdr:rowOff>
+      <xdr:colOff>489782</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1208,8 +1219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3528261" y="2186210"/>
-          <a:ext cx="2451099" cy="263718"/>
+          <a:off x="3405005" y="1399969"/>
+          <a:ext cx="2437362" cy="262263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,15 +1268,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>148957</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95599</xdr:rowOff>
+      <xdr:colOff>59748</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>579100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128859</xdr:rowOff>
+      <xdr:colOff>489891</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1280,8 +1291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3517218" y="2414729"/>
-          <a:ext cx="2451099" cy="265173"/>
+          <a:off x="3405114" y="1664203"/>
+          <a:ext cx="2437362" cy="263719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,15 +1340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200458</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100985</xdr:rowOff>
+      <xdr:colOff>59209</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>630601</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>132790</xdr:rowOff>
+      <xdr:colOff>489352</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1352,8 +1363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3568719" y="2652028"/>
-          <a:ext cx="2451099" cy="263719"/>
+          <a:off x="3404575" y="1926068"/>
+          <a:ext cx="2437362" cy="262263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,6 +1540,147 @@
             </a:rPr>
             <a:t>資格名</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29894</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568569</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC0F547-E48A-420F-84BA-6DEE03A2EAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034540" y="2387845"/>
+          <a:ext cx="1206891" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>フィードバック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492369</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEDD548-CBA0-4317-9EE9-7F6DE7537CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2515186" y="2645752"/>
+          <a:ext cx="3322906" cy="1158386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1837,27 +1989,27 @@
   <dimension ref="B20:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>3</v>
       </c>

--- a/doc/20_基本設計/01_画面系/タスク詳細.xlsx
+++ b/doc/20_基本設計/01_画面系/タスク詳細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2FF2E-FC00-4A16-A313-616D910E2CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0A537-17F9-4A7E-AE61-396292C16E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -36,20 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>資格名：社員が取得したIT資格の正式名称を返す必要があります。</t>
-  </si>
-  <si>
-    <t>取得日：資格を取得した日付を返す必要があります。</t>
-  </si>
-  <si>
-    <t>資格概要：資格についての簡単な概要を返すことができます。これには、取得した資格がどのような分野に属しているか、どのような知識や技能を有することができるかなどが含まれます。</t>
-  </si>
-  <si>
-    <t>資格詳細：詳細な情報が必要な場合は、資格の詳細ページへのリンクを提供することができます。このページには、資格の詳細、必要なスキルレベル、合格基準、試験の構成、認定プロセスなどが含まれます。</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,7 +130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="457786" y="219075"/>
-          <a:ext cx="6684645" cy="3918539"/>
+          <a:ext cx="6661868" cy="3978174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,152 +1398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD3A645-4DAE-D8BE-27D2-79CA410E091E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9423400" y="3657600"/>
-          <a:ext cx="889000" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" charset="-128"/>
-              <a:ea typeface="游ゴシック" charset="-128"/>
-            </a:rPr>
-            <a:t>資格名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722F1B3B-5BD7-7D5B-6E46-57F16DA25DC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9423400" y="3657600"/>
-          <a:ext cx="889000" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" charset="-128"/>
-              <a:ea typeface="游ゴシック" charset="-128"/>
-            </a:rPr>
-            <a:t>資格名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>29894</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101845</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>659372</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>568569</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101845</xdr:rowOff>
+      <xdr:colOff>528813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1571,8 +1422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2034540" y="2387845"/>
-          <a:ext cx="1206891" cy="228600"/>
+          <a:off x="1997842" y="2599879"/>
+          <a:ext cx="1207910" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1618,14 +1469,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>131152</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>492369</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1640,8 +1491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2515186" y="2645752"/>
-          <a:ext cx="3322906" cy="1158386"/>
+          <a:off x="2518244" y="2933987"/>
+          <a:ext cx="3328003" cy="1035039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1681,6 +1532,137 @@
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>503583</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>218661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549745</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CC0641-D504-54B7-92A1-C0F7BD528E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4518992" y="2305878"/>
+          <a:ext cx="715396" cy="271670"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>承認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278661</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6174CEEE-8CC1-4B2C-B8FF-321C623B2650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2909439" y="2306292"/>
+          <a:ext cx="715396" cy="271670"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>拒否</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1986,35 +1968,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3643BE0-3263-4316-8F3E-4619913DE9A5}">
-  <dimension ref="B20:B23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/20_基本設計/01_画面系/タスク詳細.xlsx
+++ b/doc/20_基本設計/01_画面系/タスク詳細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0A537-17F9-4A7E-AE61-396292C16E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F257B5-508C-4B11-B8D8-648BD17C7695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,9 +446,8 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -461,85 +456,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>承認待ち一覧</a:t>
+            <a:t>タスク一覧</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>442953</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>207728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C785026-DA4A-4F0D-947A-D1BDBE5ACCB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442953" y="2526858"/>
-          <a:ext cx="1384190" cy="330973"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認完了一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
